--- a/Products with Python/Descent MK3s/MK3s_PR/MK3s_FFP_PR_79.0_64.98.xlsx
+++ b/Products with Python/Descent MK3s/MK3s_PR/MK3s_FFP_PR_79.0_64.98.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\Descent MK3s\MK3s_PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5E02BF-A52C-481A-9994-6797AD92B94B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88857F5-00CD-4FF3-950C-2496C3CFDECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="18240" windowHeight="28590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FFP_45degree2.47%_total350.18" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="297">
   <si>
     <t>ItemNameType</t>
   </si>
@@ -859,13 +859,107 @@
   </si>
   <si>
     <t>1/573</t>
+  </si>
+  <si>
+    <t>PQE Note</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I701 WIFI BLE SOC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>電感按鍵 觸發按鍵IC，所以電流比較高。EE已經調整規格，該規格納入按鍵IC待機電流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>I407 crack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大漏 深度計檔板沒裝 或防水圈夾到</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小毛屑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>裝好電池會進user mode，剛開機時不吐值。1.轉test mode 2.user_mode測試</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.天線沒有裝 2.主板微彎 3.板子跟彈片接觸有不好 (7點鐘方向L1+L5天線)。CT才能完整攔到，HT沒有再出現 (3pcs fail)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>板子微彎、7點鐘天線變形、天線裂開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (五個槽只需要裝三個槽的天線)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅色是chamber cable需調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Port分布不同(見下散佈圖)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3pcs沒有裝天線(OSP裝)。重測來自FixtureA見下圖，Fixture A沒有貼附USB cable</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">FT2 ALS </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他機種+-1.5度，Descent是0.5度。治具底座會晃動，造成重測。9/26有發現狀況(如下圖)。
+9/27在測試之前test program會先確認機台角度，讓OP調整</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>多發生在-999。可能是架設時USB斷線造成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5台真實不良。Ring跟殼沒看到什麼油</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試治具不穩定</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>見下圖。未來會有Golden</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漏測</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攔檢燒錄。在前加工也會先攔檢，本次有啟動該攔檢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -892,6 +986,14 @@
       <color rgb="FFFF0000"/>
       <name val="新細明體"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -930,26 +1032,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -968,14 +1065,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>165652</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>57979</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2942811</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>162754</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>265920</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>162752</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1010,16 +1107,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3023153</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>74543</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>318374</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>47329</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>600527</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>178733</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>435481</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>151517</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1042,8 +1139,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6551544" y="1664804"/>
-          <a:ext cx="6323809" cy="4676190"/>
+          <a:off x="6373553" y="1680186"/>
+          <a:ext cx="6321964" cy="4798653"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1056,14 +1153,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>240196</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>157370</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>2873710</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>62777</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>126197</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>62778</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1098,16 +1195,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>3039718</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>195826</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>168019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>455188</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>46212</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>142224</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>73427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1130,8 +1227,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6568109" y="6501848"/>
-          <a:ext cx="6161905" cy="4676190"/>
+          <a:off x="6251005" y="6699448"/>
+          <a:ext cx="6151255" cy="4803979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1143,15 +1240,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>124239</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>155462</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>95907</xdr:rowOff>
+      <xdr:colOff>2582802</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>68692</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1174,8 +1271,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="124239" y="11322326"/>
-          <a:ext cx="8628571" cy="4676190"/>
+          <a:off x="0" y="11593285"/>
+          <a:ext cx="8637981" cy="4803979"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1187,15 +1284,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>463826</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>173936</xdr:rowOff>
+      <xdr:colOff>2613754</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>133114</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>32036</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>79343</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>253833</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38521</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1218,8 +1315,316 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9061174" y="11305762"/>
-          <a:ext cx="8761905" cy="4676190"/>
+          <a:off x="8668933" y="11563114"/>
+          <a:ext cx="8743507" cy="4803979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>524467</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>52930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="圖片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F77E93D6-5F24-2EC7-5098-E71B29B7631E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14716125" y="357188"/>
+          <a:ext cx="4239217" cy="3886742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>595312</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>248794</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>36600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="圖片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D7B4574-5A54-1D4A-7F1A-691EEE338B53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19026187" y="785812"/>
+          <a:ext cx="3368232" cy="3632288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2066935</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>189115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="圖片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651A24DB-963A-4BA3-AA77-AEA6F265223F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16439030"/>
+          <a:ext cx="8106906" cy="2105319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>123264</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>347051</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>9268</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1A8B6F2-203D-A9A5-F16D-D695F6FDFE6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123264" y="19621500"/>
+          <a:ext cx="5658640" cy="2172003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>414618</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4001085</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>105740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="圖片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E37F3263-A1A7-D1C3-859F-B3F1F468C3A4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5849471" y="19599089"/>
+          <a:ext cx="4191585" cy="2896004"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>3856179</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>146572</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="圖片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93EE157A-3FA8-61CD-76F5-3DBAD5318BB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="179294" y="22747941"/>
+          <a:ext cx="9716856" cy="2410161"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>82651</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>145578</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="圖片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3EE775-5690-608A-1938-BC4267696F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44824" y="30524824"/>
+          <a:ext cx="6077798" cy="3305636"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2130,21 +2535,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="N74" sqref="N74"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" width="93" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2163,8 +2570,11 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>18322</v>
       </c>
@@ -2183,8 +2593,11 @@
       <c r="F2">
         <v>10.76</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>18195</v>
       </c>
@@ -2203,8 +2616,11 @@
       <c r="F3">
         <v>10.220000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>18322</v>
       </c>
@@ -2223,8 +2639,11 @@
       <c r="F4">
         <v>6.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>18200</v>
       </c>
@@ -2243,8 +2662,11 @@
       <c r="F5">
         <v>6.87</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13995</v>
       </c>
@@ -2264,7 +2686,7 @@
         <v>6.52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>13995</v>
       </c>
@@ -2284,7 +2706,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>18199</v>
       </c>
@@ -2303,8 +2725,11 @@
       <c r="F8">
         <v>4.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18191</v>
       </c>
@@ -2323,8 +2748,11 @@
       <c r="F9">
         <v>3.55</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18205</v>
       </c>
@@ -2343,8 +2771,11 @@
       <c r="F10">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>18200</v>
       </c>
@@ -2363,8 +2794,11 @@
       <c r="F11">
         <v>2.75</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>18203</v>
       </c>
@@ -2383,8 +2817,11 @@
       <c r="F12">
         <v>2.74</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>18213</v>
       </c>
@@ -2403,8 +2840,11 @@
       <c r="F13">
         <v>2.54</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>8837</v>
       </c>
@@ -2423,8 +2863,11 @@
       <c r="F14">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>18781</v>
       </c>
@@ -2444,7 +2887,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18205</v>
       </c>
@@ -2463,8 +2906,11 @@
       <c r="F16">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>18322</v>
       </c>
@@ -2483,8 +2929,11 @@
       <c r="F17">
         <v>2.1800000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>18205</v>
       </c>
@@ -2503,8 +2952,11 @@
       <c r="F18">
         <v>2.02</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18213</v>
       </c>
@@ -2523,8 +2975,11 @@
       <c r="F19">
         <v>1.97</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>13995</v>
       </c>
@@ -2544,7 +2999,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18322</v>
       </c>
@@ -2563,8 +3018,11 @@
       <c r="F21">
         <v>1.63</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>18323</v>
       </c>
@@ -2583,8 +3041,11 @@
       <c r="F22">
         <v>1.61</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>18202</v>
       </c>
@@ -2594,7 +3055,7 @@
       <c r="C23">
         <v>41</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E23" t="s">
@@ -2603,8 +3064,11 @@
       <c r="F23">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8837</v>
       </c>
@@ -2623,8 +3087,11 @@
       <c r="F24">
         <v>1.36</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18203</v>
       </c>
@@ -2634,7 +3101,7 @@
       <c r="C25">
         <v>62</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E25" t="s">
@@ -2643,8 +3110,11 @@
       <c r="F25">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8837</v>
       </c>
@@ -2664,12 +3134,23 @@
         <v>1.19</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>286</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F26" xr:uid="{00000000-0001-0000-0100-000000000000}">
-    <filterColumn colId="3">
-      <colorFilter dxfId="0" cellColor="0"/>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F26" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>

--- a/Products with Python/Descent MK3s/MK3s_PR/MK3s_FFP_PR_79.0_64.98.xlsx
+++ b/Products with Python/Descent MK3s/MK3s_PR/MK3s_FFP_PR_79.0_64.98.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangcooper\Documents\Python\Python\Products with Python\Descent MK3s\MK3s_PR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A88857F5-00CD-4FF3-950C-2496C3CFDECE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6B948E4-D49A-45AA-816E-25EEF3F1CEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="480" windowWidth="18240" windowHeight="28590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15720" windowWidth="18240" windowHeight="28590" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FFP_45degree2.47%_total350.18" sheetId="1" r:id="rId1"/>
@@ -918,10 +918,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3pcs沒有裝天線(OSP裝)。重測來自FixtureA見下圖，Fixture A沒有貼附USB cable</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">FT2 ALS </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -952,6 +948,10 @@
   </si>
   <si>
     <t>攔檢燒錄。在前加工也會先攔檢，本次有啟動該攔檢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3pcs沒有裝天線(OSP裝)。重測來自FixtureA見下圖，Fixture A USB cable沒有被固定</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1032,7 +1032,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1041,7 +1041,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -2538,7 +2537,7 @@
   <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2663,7 +2662,7 @@
         <v>6.87</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2726,7 +2725,7 @@
         <v>4.12</v>
       </c>
       <c r="G8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2795,7 +2794,7 @@
         <v>2.75</v>
       </c>
       <c r="G11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2818,7 +2817,7 @@
         <v>2.74</v>
       </c>
       <c r="G12" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2841,7 +2840,7 @@
         <v>2.54</v>
       </c>
       <c r="G13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2976,7 +2975,7 @@
         <v>1.97</v>
       </c>
       <c r="G19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -3055,7 +3054,7 @@
       <c r="C23">
         <v>41</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" t="s">
         <v>106</v>
       </c>
       <c r="E23" t="s">
@@ -3065,7 +3064,7 @@
         <v>1.36</v>
       </c>
       <c r="G23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3101,7 +3100,7 @@
       <c r="C25">
         <v>62</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" t="s">
         <v>109</v>
       </c>
       <c r="E25" t="s">
@@ -3111,7 +3110,7 @@
         <v>1.2</v>
       </c>
       <c r="G25" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3141,7 +3140,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.25">
